--- a/output/LOWVOL/rebalance/rebalance_20250930.xlsx
+++ b/output/LOWVOL/rebalance/rebalance_20250930.xlsx
@@ -588,7 +588,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>70.34%</t>
+          <t>12.54%</t>
         </is>
       </c>
     </row>
@@ -6222,7 +6222,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6264,13 +6264,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02385507108935995</v>
+        <v>0.03558971756018606</v>
       </c>
       <c r="C2" t="n">
         <v>0.03598157988558989</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01212650879622994</v>
+        <v>0.0003918623254038356</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -6285,13 +6285,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01848834524300555</v>
+        <v>0.0318390968962737</v>
       </c>
       <c r="C3" t="n">
         <v>0.03215447706237055</v>
       </c>
       <c r="D3" t="n">
-        <v>0.013666131819365</v>
+        <v>0.0003153801660968555</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -6306,13 +6306,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0218989751147277</v>
+        <v>0.02906708251132253</v>
       </c>
       <c r="C4" t="n">
         <v>0.0291584735555893</v>
       </c>
       <c r="D4" t="n">
-        <v>0.007259498440861597</v>
+        <v>9.139104426676703e-05</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -6327,17 +6327,17 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.02723461979397956</v>
       </c>
       <c r="C5" t="n">
         <v>0.02602860896527638</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02602860896527638</v>
+        <v>-0.001206010828703179</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6348,17 +6348,17 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.02273724545620771</v>
       </c>
       <c r="C6" t="n">
         <v>0.02565768512136866</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02565768512136866</v>
+        <v>0.002920439665160951</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6369,13 +6369,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02234404702532915</v>
+        <v>0.01969592028040634</v>
       </c>
       <c r="C7" t="n">
         <v>0.0255021600339225</v>
       </c>
       <c r="D7" t="n">
-        <v>0.003158113008593349</v>
+        <v>0.00580623975351616</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -6390,17 +6390,17 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.0237090582997917</v>
       </c>
       <c r="C8" t="n">
         <v>0.02501374271674462</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02501374271674462</v>
+        <v>0.001304684416952927</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6411,17 +6411,17 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.02384672384723331</v>
       </c>
       <c r="C9" t="n">
         <v>0.02445545704567186</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02445545704567186</v>
+        <v>0.000608733198438554</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6432,13 +6432,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0216064919531606</v>
+        <v>0.02400178865886177</v>
       </c>
       <c r="C10" t="n">
         <v>0.02425886227730677</v>
       </c>
       <c r="D10" t="n">
-        <v>0.002652370324146173</v>
+        <v>0.0002570736184450036</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -6453,17 +6453,17 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>0.02162436792989961</v>
       </c>
       <c r="C11" t="n">
         <v>0.02261456852225367</v>
       </c>
       <c r="D11" t="n">
-        <v>0.02261456852225367</v>
+        <v>0.0009902005923540548</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6474,17 +6474,17 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02356325549077965</v>
+        <v>0.02166441737899449</v>
       </c>
       <c r="C12" t="n">
         <v>0.02190109021491802</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.001662165275861636</v>
+        <v>0.0002366728359235286</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>減少</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6495,17 +6495,17 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>0.02072619880218119</v>
       </c>
       <c r="C13" t="n">
         <v>0.02167401373793045</v>
       </c>
       <c r="D13" t="n">
-        <v>0.02167401373793045</v>
+        <v>0.0009478149357492575</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6516,17 +6516,17 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>0.02217274765445195</v>
       </c>
       <c r="C14" t="n">
         <v>0.02137333514958957</v>
       </c>
       <c r="D14" t="n">
-        <v>0.02137333514958957</v>
+        <v>-0.0007994125048623839</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6537,17 +6537,17 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>0.02032418812975426</v>
       </c>
       <c r="C15" t="n">
         <v>0.021303693515863</v>
       </c>
       <c r="D15" t="n">
-        <v>0.021303693515863</v>
+        <v>0.0009795053861087442</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6558,13 +6558,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01940186343765068</v>
+        <v>0.01967415688375323</v>
       </c>
       <c r="C16" t="n">
         <v>0.02126436743808568</v>
       </c>
       <c r="D16" t="n">
-        <v>0.001862504000434993</v>
+        <v>0.001590210554332453</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -6579,17 +6579,17 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>0.01787899362535637</v>
       </c>
       <c r="C17" t="n">
         <v>0.0210216522399791</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0210216522399791</v>
+        <v>0.003142658614622738</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6600,17 +6600,17 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>0.01673746673482336</v>
       </c>
       <c r="C18" t="n">
         <v>0.02019199254465389</v>
       </c>
       <c r="D18" t="n">
-        <v>0.02019199254465389</v>
+        <v>0.003454525809830522</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6621,17 +6621,17 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.02156304031987546</v>
+        <v>0.01936973780981581</v>
       </c>
       <c r="C19" t="n">
         <v>0.02003659710232104</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.001526443217554425</v>
+        <v>0.0006668592925052341</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>減少</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6642,17 +6642,17 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>0.01690814659498112</v>
       </c>
       <c r="C20" t="n">
         <v>0.0199217882825844</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0199217882825844</v>
+        <v>0.003013641687603288</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6663,17 +6663,17 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>0.01979077289979804</v>
       </c>
       <c r="C21" t="n">
         <v>0.01973997173247027</v>
       </c>
       <c r="D21" t="n">
-        <v>0.01973997173247027</v>
+        <v>-5.080116732777279e-05</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6684,13 +6684,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01608101510265779</v>
+        <v>0.01842493801095847</v>
       </c>
       <c r="C22" t="n">
         <v>0.0196730867169658</v>
       </c>
       <c r="D22" t="n">
-        <v>0.003592071614308013</v>
+        <v>0.001248148706007337</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -6705,17 +6705,17 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>0.01746285131302994</v>
       </c>
       <c r="C23" t="n">
         <v>0.01959035546581321</v>
       </c>
       <c r="D23" t="n">
-        <v>0.01959035546581321</v>
+        <v>0.002127504152783278</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6726,17 +6726,17 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>0.01800869367465813</v>
       </c>
       <c r="C24" t="n">
         <v>0.01938166402052056</v>
       </c>
       <c r="D24" t="n">
-        <v>0.01938166402052056</v>
+        <v>0.001372970345862434</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6747,13 +6747,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.02408666336111383</v>
+        <v>0.02216655298416303</v>
       </c>
       <c r="C25" t="n">
         <v>0.01894523405990389</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.005141429301209949</v>
+        <v>-0.003221318924259142</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -6768,17 +6768,17 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>0.01699249383659175</v>
       </c>
       <c r="C26" t="n">
         <v>0.0188338600991181</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0188338600991181</v>
+        <v>0.001841366262526348</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6789,13 +6789,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.01583561923912506</v>
+        <v>0.01648203016857352</v>
       </c>
       <c r="C27" t="n">
         <v>0.01836029159705828</v>
       </c>
       <c r="D27" t="n">
-        <v>0.002524672357933223</v>
+        <v>0.001878261428484761</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6810,17 +6810,17 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>0.01745372897027352</v>
       </c>
       <c r="C28" t="n">
         <v>0.01831874249029391</v>
       </c>
       <c r="D28" t="n">
-        <v>0.01831874249029391</v>
+        <v>0.0008650135200203822</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6831,17 +6831,17 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>0.01884298814596495</v>
       </c>
       <c r="C29" t="n">
         <v>0.0180394818725901</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0180394818725901</v>
+        <v>-0.000803506273374846</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6852,17 +6852,17 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>0.01705887768424774</v>
       </c>
       <c r="C30" t="n">
         <v>0.01798126747512463</v>
       </c>
       <c r="D30" t="n">
-        <v>0.01798126747512463</v>
+        <v>0.0009223897908768874</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6873,17 +6873,17 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>0.01637295994925418</v>
       </c>
       <c r="C31" t="n">
         <v>0.01785542474104303</v>
       </c>
       <c r="D31" t="n">
-        <v>0.01785542474104303</v>
+        <v>0.001482464791788853</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6894,17 +6894,17 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>0.01710893649267559</v>
       </c>
       <c r="C32" t="n">
         <v>0.01762089949200556</v>
       </c>
       <c r="D32" t="n">
-        <v>0.01762089949200556</v>
+        <v>0.0005119629993299742</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6915,17 +6915,17 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>0.01738163528409808</v>
       </c>
       <c r="C33" t="n">
         <v>0.0173832775470968</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0173832775470968</v>
+        <v>1.64226299872311e-06</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6936,17 +6936,17 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.01426023453676274</v>
+        <v>0.01900268124392631</v>
       </c>
       <c r="C34" t="n">
         <v>0.01735544021932119</v>
       </c>
       <c r="D34" t="n">
-        <v>0.003095205682558451</v>
+        <v>-0.001647241024605114</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6957,13 +6957,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.01374506994770076</v>
+        <v>0.01572043795071331</v>
       </c>
       <c r="C35" t="n">
         <v>0.01724332344466592</v>
       </c>
       <c r="D35" t="n">
-        <v>0.003498253496965168</v>
+        <v>0.001522885493952613</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -6978,17 +6978,17 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.01469019051367442</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0.0171289459518158</v>
       </c>
       <c r="D36" t="n">
-        <v>0.00243875543814138</v>
+        <v>0.0171289459518158</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>新增</t>
         </is>
       </c>
     </row>
@@ -6999,17 +6999,17 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>0.01660470284802484</v>
       </c>
       <c r="C37" t="n">
         <v>0.01697496563299568</v>
       </c>
       <c r="D37" t="n">
-        <v>0.01697496563299568</v>
+        <v>0.0003702627849708415</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -7020,13 +7020,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.01883325566377047</v>
+        <v>0.01746494576587383</v>
       </c>
       <c r="C38" t="n">
         <v>0.01692697081015376</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.00190628485361671</v>
+        <v>-0.0005379749557200657</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -7041,17 +7041,17 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>0.01800138188058293</v>
       </c>
       <c r="C39" t="n">
         <v>0.01682542208555877</v>
       </c>
       <c r="D39" t="n">
-        <v>0.01682542208555877</v>
+        <v>-0.001175959795024155</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -7062,17 +7062,17 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>0.01631525281313458</v>
       </c>
       <c r="C40" t="n">
         <v>0.01672339996082225</v>
       </c>
       <c r="D40" t="n">
-        <v>0.01672339996082225</v>
+        <v>0.0004081471476876722</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -7104,13 +7104,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.01706331473192547</v>
+        <v>0.01807865409460811</v>
       </c>
       <c r="C42" t="n">
         <v>0.01657159851782426</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.0004917162141012052</v>
+        <v>-0.00150705557678385</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -7146,17 +7146,17 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>0.01985318754612639</v>
       </c>
       <c r="C44" t="n">
         <v>0.01649389583916098</v>
       </c>
       <c r="D44" t="n">
-        <v>0.01649389583916098</v>
+        <v>-0.003359291706965407</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -7167,17 +7167,17 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>0.01698995242924372</v>
       </c>
       <c r="C45" t="n">
         <v>0.01641641856023184</v>
       </c>
       <c r="D45" t="n">
-        <v>0.01641641856023184</v>
+        <v>-0.0005735338690118739</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -7209,17 +7209,17 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>0.01856412935190058</v>
       </c>
       <c r="C47" t="n">
         <v>0.01631006505800916</v>
       </c>
       <c r="D47" t="n">
-        <v>0.01631006505800916</v>
+        <v>-0.002254064293891418</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -7230,17 +7230,17 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>0.01695972117523434</v>
       </c>
       <c r="C48" t="n">
         <v>0.01612496994801509</v>
       </c>
       <c r="D48" t="n">
-        <v>0.01612496994801509</v>
+        <v>-0.000834751227219252</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -7272,17 +7272,17 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>0.01744303476169869</v>
       </c>
       <c r="C50" t="n">
         <v>0.01600760303310146</v>
       </c>
       <c r="D50" t="n">
-        <v>0.01600760303310146</v>
+        <v>-0.001435431728597225</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -7293,34 +7293,34 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>0.01462095601577262</v>
       </c>
       <c r="C51" t="n">
         <v>0.01598071858260566</v>
       </c>
       <c r="D51" t="n">
-        <v>0.01598071858260566</v>
+        <v>0.001359762566833041</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1314</t>
+          <t>2889</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.02355196386809263</v>
+        <v>0.01966652349155505</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.02355196386809263</v>
+        <v>-0.01966652349155505</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7331,17 +7331,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1304</t>
+          <t>2645</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.009622542533501272</v>
+        <v>0.024922666043622</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.009622542533501272</v>
+        <v>-0.024922666043622</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7352,17 +7352,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1303</t>
+          <t>1717</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01455914358226369</v>
+        <v>0.02806736601635286</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.01455914358226369</v>
+        <v>-0.02806736601635286</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7373,17 +7373,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1326</t>
+          <t>1434</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.01226746287360004</v>
+        <v>0.01693108439186423</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.01226746287360004</v>
+        <v>-0.01693108439186423</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7394,628 +7394,19 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2330</t>
+          <t>2849</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.04478233487105659</v>
+        <v>0.01644418791720471</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.04478233487105659</v>
+        <v>-0.01644418791720471</v>
       </c>
       <c r="E56" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>6182</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>0.01220609018187284</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0</v>
-      </c>
-      <c r="D57" t="n">
-        <v>-0.01220609018187284</v>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>3714</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>0.01492025719233514</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0</v>
-      </c>
-      <c r="D58" t="n">
-        <v>-0.01492025719233514</v>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>6269</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>0.01429012651100543</v>
-      </c>
-      <c r="C59" t="n">
-        <v>0</v>
-      </c>
-      <c r="D59" t="n">
-        <v>-0.01429012651100543</v>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>6505</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>0.01190878460208871</v>
-      </c>
-      <c r="C60" t="n">
-        <v>0</v>
-      </c>
-      <c r="D60" t="n">
-        <v>-0.01190878460208871</v>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>6770</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>0.01701188784427866</v>
-      </c>
-      <c r="C61" t="n">
-        <v>0</v>
-      </c>
-      <c r="D61" t="n">
-        <v>-0.01701188784427866</v>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>1301</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>0.01368062781012944</v>
-      </c>
-      <c r="C62" t="n">
-        <v>0</v>
-      </c>
-      <c r="D62" t="n">
-        <v>-0.01368062781012944</v>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>9904</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>0.01562956787849219</v>
-      </c>
-      <c r="C63" t="n">
-        <v>0</v>
-      </c>
-      <c r="D63" t="n">
-        <v>-0.01562956787849219</v>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>1409</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>0.0167838515572665</v>
-      </c>
-      <c r="C64" t="n">
-        <v>0</v>
-      </c>
-      <c r="D64" t="n">
-        <v>-0.0167838515572665</v>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>1904</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>0.01083371331406956</v>
-      </c>
-      <c r="C65" t="n">
-        <v>0</v>
-      </c>
-      <c r="D65" t="n">
-        <v>-0.01083371331406956</v>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>1434</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>0.01246126130813693</v>
-      </c>
-      <c r="C66" t="n">
-        <v>0</v>
-      </c>
-      <c r="D66" t="n">
-        <v>-0.01246126130813693</v>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>1440</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>0.02113108590774125</v>
-      </c>
-      <c r="C67" t="n">
-        <v>0</v>
-      </c>
-      <c r="D67" t="n">
-        <v>-0.02113108590774125</v>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>2354</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>0.02425133414204579</v>
-      </c>
-      <c r="C68" t="n">
-        <v>0</v>
-      </c>
-      <c r="D68" t="n">
-        <v>-0.02425133414204579</v>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>2317</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>0.04025083150597414</v>
-      </c>
-      <c r="C69" t="n">
-        <v>0</v>
-      </c>
-      <c r="D69" t="n">
-        <v>-0.04025083150597414</v>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>2308</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>0.04992697442472107</v>
-      </c>
-      <c r="C70" t="n">
-        <v>0</v>
-      </c>
-      <c r="D70" t="n">
-        <v>-0.04992697442472107</v>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>2258</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>0.016006892475771</v>
-      </c>
-      <c r="C71" t="n">
-        <v>0</v>
-      </c>
-      <c r="D71" t="n">
-        <v>-0.016006892475771</v>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>2227</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>0.005069422027131034</v>
-      </c>
-      <c r="C72" t="n">
-        <v>0</v>
-      </c>
-      <c r="D72" t="n">
-        <v>-0.005069422027131034</v>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>2809</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>0.03469423416347</v>
-      </c>
-      <c r="C73" t="n">
-        <v>0</v>
-      </c>
-      <c r="D73" t="n">
-        <v>-0.03469423416347</v>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>2106</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>0.01130188949083543</v>
-      </c>
-      <c r="C74" t="n">
-        <v>0</v>
-      </c>
-      <c r="D74" t="n">
-        <v>-0.01130188949083543</v>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>2101</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>0.01585219406512724</v>
-      </c>
-      <c r="C75" t="n">
-        <v>0</v>
-      </c>
-      <c r="D75" t="n">
-        <v>-0.01585219406512724</v>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>2849</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>0.02146985374389028</v>
-      </c>
-      <c r="C76" t="n">
-        <v>0</v>
-      </c>
-      <c r="D76" t="n">
-        <v>-0.02146985374389028</v>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>2867</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>0.03664678620911397</v>
-      </c>
-      <c r="C77" t="n">
-        <v>0</v>
-      </c>
-      <c r="D77" t="n">
-        <v>-0.03664678620911397</v>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>2882</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>0.02707282916733143</v>
-      </c>
-      <c r="C78" t="n">
-        <v>0</v>
-      </c>
-      <c r="D78" t="n">
-        <v>-0.02707282916733143</v>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>2883</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>0.02300781742890624</v>
-      </c>
-      <c r="C79" t="n">
-        <v>0</v>
-      </c>
-      <c r="D79" t="n">
-        <v>-0.02300781742890624</v>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>2002</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>0.01879081971086649</v>
-      </c>
-      <c r="C80" t="n">
-        <v>0</v>
-      </c>
-      <c r="D80" t="n">
-        <v>-0.01879081971086649</v>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>2888</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>0.03772267177350051</v>
-      </c>
-      <c r="C81" t="n">
-        <v>0</v>
-      </c>
-      <c r="D81" t="n">
-        <v>-0.03772267177350051</v>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>2337</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>0.01352120581095799</v>
-      </c>
-      <c r="C82" t="n">
-        <v>0</v>
-      </c>
-      <c r="D82" t="n">
-        <v>-0.01352120581095799</v>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>1723</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>0.01190972361555407</v>
-      </c>
-      <c r="C83" t="n">
-        <v>0</v>
-      </c>
-      <c r="D83" t="n">
-        <v>-0.01190972361555407</v>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>1717</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>0.02494882219451461</v>
-      </c>
-      <c r="C84" t="n">
-        <v>0</v>
-      </c>
-      <c r="D84" t="n">
-        <v>-0.02494882219451461</v>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>9945</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>0.01459854344373849</v>
-      </c>
-      <c r="C85" t="n">
-        <v>0</v>
-      </c>
-      <c r="D85" t="n">
-        <v>-0.01459854344373849</v>
-      </c>
-      <c r="E85" t="inlineStr">
         <is>
           <t>刪除</t>
         </is>

--- a/output/LOWVOL/rebalance/rebalance_20250930.xlsx
+++ b/output/LOWVOL/rebalance/rebalance_20250930.xlsx
@@ -588,7 +588,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>12.54%</t>
+          <t>12.69%</t>
         </is>
       </c>
     </row>
@@ -6264,17 +6264,17 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.03558971756018606</v>
+        <v>0.03678681266628894</v>
       </c>
       <c r="C2" t="n">
         <v>0.03598157988558989</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0003918623254038356</v>
+        <v>-0.00080523278069905</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6285,13 +6285,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0318390968962737</v>
+        <v>0.03170308978349801</v>
       </c>
       <c r="C3" t="n">
         <v>0.03215447706237055</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0003153801660968555</v>
+        <v>0.0004513872788725476</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -6306,13 +6306,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02906708251132253</v>
+        <v>0.02894124075469839</v>
       </c>
       <c r="C4" t="n">
         <v>0.0291584735555893</v>
       </c>
       <c r="D4" t="n">
-        <v>9.139104426676703e-05</v>
+        <v>0.0002172328008909104</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -6327,13 +6327,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02723461979397956</v>
+        <v>0.0271213201087883</v>
       </c>
       <c r="C5" t="n">
         <v>0.02602860896527638</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.001206010828703179</v>
+        <v>-0.001092711143511917</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -6348,13 +6348,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02273724545620771</v>
+        <v>0.02263955534588521</v>
       </c>
       <c r="C6" t="n">
         <v>0.02565768512136866</v>
       </c>
       <c r="D6" t="n">
-        <v>0.002920439665160951</v>
+        <v>0.00301812977548345</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -6369,13 +6369,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01969592028040634</v>
+        <v>0.01961407686133354</v>
       </c>
       <c r="C7" t="n">
         <v>0.0255021600339225</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00580623975351616</v>
+        <v>0.005888083172588956</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -6390,13 +6390,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0237090582997917</v>
+        <v>0.02360450960311306</v>
       </c>
       <c r="C8" t="n">
         <v>0.02501374271674462</v>
       </c>
       <c r="D8" t="n">
-        <v>0.001304684416952927</v>
+        <v>0.001409233113631562</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -6411,13 +6411,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02384672384723331</v>
+        <v>0.02374803774923681</v>
       </c>
       <c r="C9" t="n">
         <v>0.02445545704567186</v>
       </c>
       <c r="D9" t="n">
-        <v>0.000608733198438554</v>
+        <v>0.0007074192964350544</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -6432,13 +6432,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02400178865886177</v>
+        <v>0.0238991602991612</v>
       </c>
       <c r="C10" t="n">
         <v>0.02425886227730677</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0002570736184450036</v>
+        <v>0.0003597019781455719</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -6453,13 +6453,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02162436792989961</v>
+        <v>0.0215318471254261</v>
       </c>
       <c r="C11" t="n">
         <v>0.02261456852225367</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0009902005923540548</v>
+        <v>0.001082721396827569</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -6474,13 +6474,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02166441737899449</v>
+        <v>0.02157451921899594</v>
       </c>
       <c r="C12" t="n">
         <v>0.02190109021491802</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0002366728359235286</v>
+        <v>0.0003265709959220722</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -6495,13 +6495,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02072619880218119</v>
+        <v>0.02063491023912702</v>
       </c>
       <c r="C13" t="n">
         <v>0.02167401373793045</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0009478149357492575</v>
+        <v>0.001039103498803425</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -6516,13 +6516,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02217274765445195</v>
+        <v>0.02207775344844224</v>
       </c>
       <c r="C14" t="n">
         <v>0.02137333514958957</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.0007994125048623839</v>
+        <v>-0.0007044182988526666</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -6537,13 +6537,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02032418812975426</v>
+        <v>0.02023310628217878</v>
       </c>
       <c r="C15" t="n">
         <v>0.021303693515863</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0009795053861087442</v>
+        <v>0.001070587233684226</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -6558,13 +6558,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01967415688375323</v>
+        <v>0.0195920399183812</v>
       </c>
       <c r="C16" t="n">
         <v>0.02126436743808568</v>
       </c>
       <c r="D16" t="n">
-        <v>0.001590210554332453</v>
+        <v>0.001672327519704482</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -6579,13 +6579,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01787899362535637</v>
+        <v>0.01780233299660972</v>
       </c>
       <c r="C17" t="n">
         <v>0.0210216522399791</v>
       </c>
       <c r="D17" t="n">
-        <v>0.003142658614622738</v>
+        <v>0.003219319243369382</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -6600,13 +6600,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01673746673482336</v>
+        <v>0.01666626656750559</v>
       </c>
       <c r="C18" t="n">
         <v>0.02019199254465389</v>
       </c>
       <c r="D18" t="n">
-        <v>0.003454525809830522</v>
+        <v>0.003525725977148297</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -6621,13 +6621,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01936973780981581</v>
+        <v>0.01928905797041724</v>
       </c>
       <c r="C19" t="n">
         <v>0.02003659710232104</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0006668592925052341</v>
+        <v>0.0007475391319038023</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -6642,13 +6642,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01690814659498112</v>
+        <v>0.01683432178616924</v>
       </c>
       <c r="C20" t="n">
         <v>0.0199217882825844</v>
       </c>
       <c r="D20" t="n">
-        <v>0.003013641687603288</v>
+        <v>0.003087466496415166</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -6663,13 +6663,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01979077289979804</v>
+        <v>0.02067938380847726</v>
       </c>
       <c r="C21" t="n">
         <v>0.01973997173247027</v>
       </c>
       <c r="D21" t="n">
-        <v>-5.080116732777279e-05</v>
+        <v>-0.0009394120760069895</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -6684,13 +6684,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01842493801095847</v>
+        <v>0.01834658282764296</v>
       </c>
       <c r="C22" t="n">
         <v>0.0196730867169658</v>
       </c>
       <c r="D22" t="n">
-        <v>0.001248148706007337</v>
+        <v>0.001326503889322844</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -6705,13 +6705,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01746285131302994</v>
+        <v>0.01738729774801006</v>
       </c>
       <c r="C23" t="n">
         <v>0.01959035546581321</v>
       </c>
       <c r="D23" t="n">
-        <v>0.002127504152783278</v>
+        <v>0.002203057717803152</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -6726,13 +6726,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01800869367465813</v>
+        <v>0.01793070300876173</v>
       </c>
       <c r="C24" t="n">
         <v>0.01938166402052056</v>
       </c>
       <c r="D24" t="n">
-        <v>0.001372970345862434</v>
+        <v>0.001450961011758838</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -6747,13 +6747,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.02216655298416303</v>
+        <v>0.02206964857007127</v>
       </c>
       <c r="C25" t="n">
         <v>0.01894523405990389</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.003221318924259142</v>
+        <v>-0.00312441451016738</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -6768,13 +6768,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01699249383659175</v>
+        <v>0.01691882704448954</v>
       </c>
       <c r="C26" t="n">
         <v>0.0188338600991181</v>
       </c>
       <c r="D26" t="n">
-        <v>0.001841366262526348</v>
+        <v>0.001915033054628562</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -6789,13 +6789,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.01648203016857352</v>
+        <v>0.01705237330974956</v>
       </c>
       <c r="C27" t="n">
         <v>0.01836029159705828</v>
       </c>
       <c r="D27" t="n">
-        <v>0.001878261428484761</v>
+        <v>0.001307918287308724</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6810,13 +6810,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.01745372897027352</v>
+        <v>0.01737682228012515</v>
       </c>
       <c r="C28" t="n">
         <v>0.01831874249029391</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0008650135200203822</v>
+        <v>0.0009419202101687597</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -6831,13 +6831,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.01884298814596495</v>
+        <v>0.01876684606005099</v>
       </c>
       <c r="C29" t="n">
         <v>0.0180394818725901</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.000803506273374846</v>
+        <v>-0.0007273641874608848</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -6852,13 +6852,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.01705887768424774</v>
+        <v>0.01698684529689944</v>
       </c>
       <c r="C30" t="n">
         <v>0.01798126747512463</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0009223897908768874</v>
+        <v>0.0009944221782251933</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -6873,13 +6873,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.01637295994925418</v>
+        <v>0.01630123109951375</v>
       </c>
       <c r="C31" t="n">
         <v>0.01785542474104303</v>
       </c>
       <c r="D31" t="n">
-        <v>0.001482464791788853</v>
+        <v>0.001554193641529287</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -6894,13 +6894,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.01710893649267559</v>
+        <v>0.01703511219050763</v>
       </c>
       <c r="C32" t="n">
         <v>0.01762089949200556</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0005119629993299742</v>
+        <v>0.0005857873014979281</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -6915,13 +6915,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.01738163528409808</v>
+        <v>0.01730834328265313</v>
       </c>
       <c r="C33" t="n">
         <v>0.0173832775470968</v>
       </c>
       <c r="D33" t="n">
-        <v>1.64226299872311e-06</v>
+        <v>7.493426444367055e-05</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -6936,13 +6936,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.01900268124392631</v>
+        <v>0.01967036811280216</v>
       </c>
       <c r="C34" t="n">
         <v>0.01735544021932119</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.001647241024605114</v>
+        <v>-0.002314927893480964</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -6957,13 +6957,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.01572043795071331</v>
+        <v>0.015653057047233</v>
       </c>
       <c r="C35" t="n">
         <v>0.01724332344466592</v>
       </c>
       <c r="D35" t="n">
-        <v>0.001522885493952613</v>
+        <v>0.001590266397432927</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -6999,13 +6999,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.01660470284802484</v>
+        <v>0.01653409664211107</v>
       </c>
       <c r="C37" t="n">
         <v>0.01697496563299568</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0003702627849708415</v>
+        <v>0.000440868990884604</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -7020,13 +7020,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.01746494576587383</v>
+        <v>0.01738814101848074</v>
       </c>
       <c r="C38" t="n">
         <v>0.01692697081015376</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.0005379749557200657</v>
+        <v>-0.000461170208326981</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -7041,13 +7041,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.01800138188058293</v>
+        <v>0.01792147329428387</v>
       </c>
       <c r="C39" t="n">
         <v>0.01682542208555877</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.001175959795024155</v>
+        <v>-0.001096051208725097</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -7062,13 +7062,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.01631525281313458</v>
+        <v>0.01624399286171827</v>
       </c>
       <c r="C40" t="n">
         <v>0.01672339996082225</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0004081471476876722</v>
+        <v>0.0004794070991039831</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -7104,13 +7104,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.01807865409460811</v>
+        <v>0.01800284411336808</v>
       </c>
       <c r="C42" t="n">
         <v>0.01657159851782426</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.00150705557678385</v>
+        <v>-0.001431245595543817</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -7146,13 +7146,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.01985318754612639</v>
+        <v>0.0197690471740369</v>
       </c>
       <c r="C44" t="n">
         <v>0.01649389583916098</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.003359291706965407</v>
+        <v>-0.003275151334875923</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -7167,13 +7167,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.01698995242924372</v>
+        <v>0.01751459439616032</v>
       </c>
       <c r="C45" t="n">
         <v>0.01641641856023184</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.0005735338690118739</v>
+        <v>-0.001098175835928479</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -7209,13 +7209,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.01856412935190058</v>
+        <v>0.01848541411388096</v>
       </c>
       <c r="C47" t="n">
         <v>0.01631006505800916</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.002254064293891418</v>
+        <v>-0.002175349055871797</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -7230,13 +7230,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.01695972117523434</v>
+        <v>0.01688553786252739</v>
       </c>
       <c r="C48" t="n">
         <v>0.01612496994801509</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.000834751227219252</v>
+        <v>-0.0007605679145123029</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -7272,13 +7272,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.01744303476169869</v>
+        <v>0.01736520993685313</v>
       </c>
       <c r="C50" t="n">
         <v>0.01600760303310146</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.001435431728597225</v>
+        <v>-0.001357606903751665</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -7293,13 +7293,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.01462095601577262</v>
+        <v>0.01455820213167374</v>
       </c>
       <c r="C51" t="n">
         <v>0.01598071858260566</v>
       </c>
       <c r="D51" t="n">
-        <v>0.001359762566833041</v>
+        <v>0.001422516450931912</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -7314,13 +7314,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01966652349155505</v>
+        <v>0.01958265947147891</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.01966652349155505</v>
+        <v>-0.01958265947147891</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7335,13 +7335,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.024922666043622</v>
+        <v>0.02480848843627071</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.024922666043622</v>
+        <v>-0.02480848843627071</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7356,13 +7356,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.02806736601635286</v>
+        <v>0.02792847629247968</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.02806736601635286</v>
+        <v>-0.02792847629247968</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7377,13 +7377,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.01693108439186423</v>
+        <v>0.01686006565242387</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.01693108439186423</v>
+        <v>-0.01686006565242387</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7398,13 +7398,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.01644418791720471</v>
+        <v>0.01637435619000821</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.01644418791720471</v>
+        <v>-0.01637435619000821</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>

--- a/output/LOWVOL/rebalance/rebalance_20250930.xlsx
+++ b/output/LOWVOL/rebalance/rebalance_20250930.xlsx
@@ -588,7 +588,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>12.69%</t>
+          <t>12.88%</t>
         </is>
       </c>
     </row>
@@ -6264,17 +6264,17 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.03678681266628894</v>
+        <v>0.03532537769375151</v>
       </c>
       <c r="C2" t="n">
         <v>0.03598157988558989</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.00080523278069905</v>
+        <v>0.000656202191838387</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>減少</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6285,13 +6285,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03170308978349801</v>
+        <v>0.03097682630525236</v>
       </c>
       <c r="C3" t="n">
         <v>0.03215447706237055</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0004513872788725476</v>
+        <v>0.00117765075711819</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -6306,13 +6306,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02894124075469839</v>
+        <v>0.02885904203623214</v>
       </c>
       <c r="C4" t="n">
         <v>0.0291584735555893</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0002172328008909104</v>
+        <v>0.0002994315193571573</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -6327,13 +6327,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0271213201087883</v>
+        <v>0.02734545263798759</v>
       </c>
       <c r="C5" t="n">
         <v>0.02602860896527638</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.001092711143511917</v>
+        <v>-0.001316843672711211</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -6348,13 +6348,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02263955534588521</v>
+        <v>0.02215163572704537</v>
       </c>
       <c r="C6" t="n">
         <v>0.02565768512136866</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00301812977548345</v>
+        <v>0.003506049394323283</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -6369,13 +6369,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01961407686133354</v>
+        <v>0.01946658922983655</v>
       </c>
       <c r="C7" t="n">
         <v>0.0255021600339225</v>
       </c>
       <c r="D7" t="n">
-        <v>0.005888083172588956</v>
+        <v>0.006035570804085955</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -6390,13 +6390,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02360450960311306</v>
+        <v>0.02446680877144686</v>
       </c>
       <c r="C8" t="n">
         <v>0.02501374271674462</v>
       </c>
       <c r="D8" t="n">
-        <v>0.001409233113631562</v>
+        <v>0.0005469339452977631</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -6411,13 +6411,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02374803774923681</v>
+        <v>0.02390862164505836</v>
       </c>
       <c r="C9" t="n">
         <v>0.02445545704567186</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0007074192964350544</v>
+        <v>0.0005468354006134997</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -6432,13 +6432,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0238991602991612</v>
+        <v>0.02389811344207149</v>
       </c>
       <c r="C10" t="n">
         <v>0.02425886227730677</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0003597019781455719</v>
+        <v>0.0003607488352352813</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -6453,13 +6453,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0215318471254261</v>
+        <v>0.02143606269560687</v>
       </c>
       <c r="C11" t="n">
         <v>0.02261456852225367</v>
       </c>
       <c r="D11" t="n">
-        <v>0.001082721396827569</v>
+        <v>0.001178505826646796</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -6474,13 +6474,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02157451921899594</v>
+        <v>0.0213497563735146</v>
       </c>
       <c r="C12" t="n">
         <v>0.02190109021491802</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0003265709959220722</v>
+        <v>0.0005513338414034133</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -6495,13 +6495,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02063491023912702</v>
+        <v>0.02033730489570207</v>
       </c>
       <c r="C13" t="n">
         <v>0.02167401373793045</v>
       </c>
       <c r="D13" t="n">
-        <v>0.001039103498803425</v>
+        <v>0.001336708842228376</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -6516,13 +6516,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02207775344844224</v>
+        <v>0.02211464830175597</v>
       </c>
       <c r="C14" t="n">
         <v>0.02137333514958957</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.0007044182988526666</v>
+        <v>-0.0007413131521663979</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -6537,13 +6537,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02023310628217878</v>
+        <v>0.02021566927265995</v>
       </c>
       <c r="C15" t="n">
         <v>0.021303693515863</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001070587233684226</v>
+        <v>0.001088024243203051</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -6558,13 +6558,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0195920399183812</v>
+        <v>0.01940730597650013</v>
       </c>
       <c r="C16" t="n">
         <v>0.02126436743808568</v>
       </c>
       <c r="D16" t="n">
-        <v>0.001672327519704482</v>
+        <v>0.001857061461585551</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -6579,13 +6579,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01780233299660972</v>
+        <v>0.01771825377767447</v>
       </c>
       <c r="C17" t="n">
         <v>0.0210216522399791</v>
       </c>
       <c r="D17" t="n">
-        <v>0.003219319243369382</v>
+        <v>0.003303398462304638</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -6600,13 +6600,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01666626656750559</v>
+        <v>0.01641681361842858</v>
       </c>
       <c r="C18" t="n">
         <v>0.02019199254465389</v>
       </c>
       <c r="D18" t="n">
-        <v>0.003525725977148297</v>
+        <v>0.003775178926225309</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -6621,13 +6621,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01928905797041724</v>
+        <v>0.01923165036789516</v>
       </c>
       <c r="C19" t="n">
         <v>0.02003659710232104</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0007475391319038023</v>
+        <v>0.000804946734425882</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -6642,13 +6642,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01683432178616924</v>
+        <v>0.01722266632224437</v>
       </c>
       <c r="C20" t="n">
         <v>0.0199217882825844</v>
       </c>
       <c r="D20" t="n">
-        <v>0.003087466496415166</v>
+        <v>0.002699121960340035</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -6663,17 +6663,17 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.02067938380847726</v>
+        <v>0.01941414251556129</v>
       </c>
       <c r="C21" t="n">
         <v>0.01973997173247027</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.0009394120760069895</v>
+        <v>0.0003258292169089766</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>減少</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6684,13 +6684,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01834658282764296</v>
+        <v>0.01817672020065116</v>
       </c>
       <c r="C22" t="n">
         <v>0.0196730867169658</v>
       </c>
       <c r="D22" t="n">
-        <v>0.001326503889322844</v>
+        <v>0.001496366516314639</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -6705,13 +6705,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01738729774801006</v>
+        <v>0.01699784457122144</v>
       </c>
       <c r="C23" t="n">
         <v>0.01959035546581321</v>
       </c>
       <c r="D23" t="n">
-        <v>0.002203057717803152</v>
+        <v>0.002592510894591771</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -6726,13 +6726,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01793070300876173</v>
+        <v>0.01820164125322363</v>
       </c>
       <c r="C24" t="n">
         <v>0.01938166402052056</v>
       </c>
       <c r="D24" t="n">
-        <v>0.001450961011758838</v>
+        <v>0.001180022767296934</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -6747,13 +6747,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.02206964857007127</v>
+        <v>0.02287500440244926</v>
       </c>
       <c r="C25" t="n">
         <v>0.01894523405990389</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.00312441451016738</v>
+        <v>-0.003929770342545377</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -6768,13 +6768,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01691882704448954</v>
+        <v>0.01753558036733717</v>
       </c>
       <c r="C26" t="n">
         <v>0.0188338600991181</v>
       </c>
       <c r="D26" t="n">
-        <v>0.001915033054628562</v>
+        <v>0.001298279731780934</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -6789,13 +6789,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.01705237330974956</v>
+        <v>0.01634540352277447</v>
       </c>
       <c r="C27" t="n">
         <v>0.01836029159705828</v>
       </c>
       <c r="D27" t="n">
-        <v>0.001307918287308724</v>
+        <v>0.002014888074283815</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6810,13 +6810,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.01737682228012515</v>
+        <v>0.01801155675036218</v>
       </c>
       <c r="C28" t="n">
         <v>0.01831874249029391</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0009419202101687597</v>
+        <v>0.0003071857399317215</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -6831,13 +6831,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.01876684606005099</v>
+        <v>0.01909574092144955</v>
       </c>
       <c r="C29" t="n">
         <v>0.0180394818725901</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.0007273641874608848</v>
+        <v>-0.001056259048859448</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -6852,13 +6852,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.01698684529689944</v>
+        <v>0.01677608182909983</v>
       </c>
       <c r="C30" t="n">
         <v>0.01798126747512463</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0009944221782251933</v>
+        <v>0.001205185646024801</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -6873,13 +6873,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.01630123109951375</v>
+        <v>0.0159686013482324</v>
       </c>
       <c r="C31" t="n">
         <v>0.01785542474104303</v>
       </c>
       <c r="D31" t="n">
-        <v>0.001554193641529287</v>
+        <v>0.001886823392810637</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -6894,13 +6894,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.01703511219050763</v>
+        <v>0.0169890753812694</v>
       </c>
       <c r="C32" t="n">
         <v>0.01762089949200556</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0005857873014979281</v>
+        <v>0.0006318241107361559</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -6915,17 +6915,17 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.01730834328265313</v>
+        <v>0.01793715892270579</v>
       </c>
       <c r="C33" t="n">
         <v>0.0173832775470968</v>
       </c>
       <c r="D33" t="n">
-        <v>7.493426444367055e-05</v>
+        <v>-0.000553881375608984</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6936,13 +6936,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.01967036811280216</v>
+        <v>0.01883337990184454</v>
       </c>
       <c r="C34" t="n">
         <v>0.01735544021932119</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.002314927893480964</v>
+        <v>-0.001477939682523344</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -6957,13 +6957,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.015653057047233</v>
+        <v>0.01559039856418014</v>
       </c>
       <c r="C35" t="n">
         <v>0.01724332344466592</v>
       </c>
       <c r="D35" t="n">
-        <v>0.001590266397432927</v>
+        <v>0.001652924880485783</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -6999,17 +6999,17 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.01653409664211107</v>
+        <v>0.01713539543208648</v>
       </c>
       <c r="C37" t="n">
         <v>0.01697496563299568</v>
       </c>
       <c r="D37" t="n">
-        <v>0.000440868990884604</v>
+        <v>-0.0001604297990908041</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -7020,13 +7020,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.01738814101848074</v>
+        <v>0.01802313203899286</v>
       </c>
       <c r="C38" t="n">
         <v>0.01692697081015376</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.000461170208326981</v>
+        <v>-0.001096161228839102</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -7041,13 +7041,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.01792147329428387</v>
+        <v>0.01762730674642025</v>
       </c>
       <c r="C39" t="n">
         <v>0.01682542208555877</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.001096051208725097</v>
+        <v>-0.0008018846608614759</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -7062,17 +7062,17 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.01624399286171827</v>
+        <v>0.01683669446459126</v>
       </c>
       <c r="C40" t="n">
         <v>0.01672339996082225</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0004794070991039831</v>
+        <v>-0.000113294503769009</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -7104,13 +7104,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.01800284411336808</v>
+        <v>0.01865645471806012</v>
       </c>
       <c r="C42" t="n">
         <v>0.01657159851782426</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.001431245595543817</v>
+        <v>-0.002084856200235859</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -7146,13 +7146,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.0197690471740369</v>
+        <v>0.01933165699658854</v>
       </c>
       <c r="C44" t="n">
         <v>0.01649389583916098</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.003275151334875923</v>
+        <v>-0.002837761157427562</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -7167,13 +7167,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.01751459439616032</v>
+        <v>0.01691232206359055</v>
       </c>
       <c r="C45" t="n">
         <v>0.01641641856023184</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.001098175835928479</v>
+        <v>-0.0004959035033587113</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -7209,13 +7209,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.01848541411388096</v>
+        <v>0.01860153791846838</v>
       </c>
       <c r="C47" t="n">
         <v>0.01631006505800916</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.002175349055871797</v>
+        <v>-0.00229147286045922</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -7230,13 +7230,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.01688553786252739</v>
+        <v>0.01750176027932592</v>
       </c>
       <c r="C48" t="n">
         <v>0.01612496994801509</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.0007605679145123029</v>
+        <v>-0.001376790331310832</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -7272,13 +7272,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.01736520993685313</v>
+        <v>0.01800052075083602</v>
       </c>
       <c r="C50" t="n">
         <v>0.01600760303310146</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.001357606903751665</v>
+        <v>-0.00199291771773456</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -7293,13 +7293,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.01455820213167374</v>
+        <v>0.01426602258823309</v>
       </c>
       <c r="C51" t="n">
         <v>0.01598071858260566</v>
       </c>
       <c r="D51" t="n">
-        <v>0.001422516450931912</v>
+        <v>0.001714695994372571</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -7314,13 +7314,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01958265947147891</v>
+        <v>0.01988368640627252</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.01958265947147891</v>
+        <v>-0.01988368640627252</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7335,13 +7335,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.02480848843627071</v>
+        <v>0.02455719165444336</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.02480848843627071</v>
+        <v>-0.02455719165444336</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7356,13 +7356,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.02792847629247968</v>
+        <v>0.02896440965124051</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.02792847629247968</v>
+        <v>-0.02896440965124051</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7377,13 +7377,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.01686006565242387</v>
+        <v>0.01660938315458727</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.01686006565242387</v>
+        <v>-0.01660938315458727</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7398,13 +7398,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.01637435619000821</v>
+        <v>0.01649559559323628</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.01637435619000821</v>
+        <v>-0.01649559559323628</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
